--- a/data/trans_orig/P6907S1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Clase-trans_orig.xlsx
@@ -2436,7 +2436,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -5079,7 +5079,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -7722,7 +7722,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -10365,7 +10365,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
